--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\CSG\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31EC19-31CA-4B8E-BA4C-003127711734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_08_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,16 +734,16 @@
         <v>194.7146774925678</v>
       </c>
       <c r="H2">
-        <v>38.66646281986375</v>
+        <v>38.666462819863753</v>
       </c>
       <c r="I2">
-        <v>156.0482146727041</v>
+        <v>156.04821467270409</v>
       </c>
       <c r="J2">
         <v>0.08</v>
       </c>
       <c r="K2">
-        <v>158.7012386577454</v>
+        <v>158.70123865774539</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -663,46 +752,46 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9832829030984261</v>
+        <v>0.98328290309842614</v>
       </c>
       <c r="O2">
         <v>205.4935049353482</v>
       </c>
       <c r="P2">
-        <v>46.79226627760276</v>
+        <v>46.792266277602756</v>
       </c>
       <c r="Q2">
-        <v>1.479696488493118</v>
+        <v>1.4796964884931181</v>
       </c>
       <c r="R2">
-        <v>89.46288655814172</v>
+        <v>89.462886558141719</v>
       </c>
       <c r="S2">
-        <v>4.391612573672419</v>
+        <v>4.3916125736724192</v>
       </c>
       <c r="T2">
-        <v>5.035750965887133</v>
+        <v>5.0357509658871331</v>
       </c>
       <c r="U2">
         <v>1.616562664182392</v>
       </c>
       <c r="V2">
-        <v>93.54145452211576</v>
+        <v>93.541454522115757</v>
       </c>
       <c r="W2">
-        <v>71.54745136977522</v>
+        <v>71.547451369775217</v>
       </c>
       <c r="X2">
-        <v>227.5956660424793</v>
+        <v>227.59566604247931</v>
       </c>
       <c r="Y2">
-        <v>68.89442738473389</v>
+        <v>68.894427384733888</v>
       </c>
       <c r="Z2">
-        <v>1.038508542501207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>1.0385085425012071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>237.2841633861715</v>
+        <v>237.28416338617151</v>
       </c>
       <c r="H3">
-        <v>26.92494601505225</v>
+        <v>26.924946015052249</v>
       </c>
       <c r="I3">
         <v>210.3592173711192</v>
@@ -746,43 +835,43 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>237.2841633861715</v>
+        <v>237.28416338617151</v>
       </c>
       <c r="P3">
-        <v>26.92494601505225</v>
+        <v>26.924946015052249</v>
       </c>
       <c r="Q3">
-        <v>2.176205206507685</v>
+        <v>2.1762052065076851</v>
       </c>
       <c r="R3">
-        <v>151.7650096682241</v>
+        <v>151.76500966822411</v>
       </c>
       <c r="S3">
-        <v>8.812799968234627</v>
+        <v>8.8127999682346267</v>
       </c>
       <c r="T3">
-        <v>8.812799968234627</v>
+        <v>8.8127999682346267</v>
       </c>
       <c r="U3">
-        <v>2.176205206507685</v>
+        <v>2.1762052065076851</v>
       </c>
       <c r="V3">
-        <v>151.7650096682241</v>
+        <v>151.76500966822411</v>
       </c>
       <c r="W3">
-        <v>34.11509957193883</v>
+        <v>34.115099571938828</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>34.11509957193883</v>
+        <v>34.115099571938828</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>235.9124540206934</v>
+        <v>235.91245402069339</v>
       </c>
       <c r="H4">
-        <v>29.6118589904666</v>
+        <v>29.611858990466601</v>
       </c>
       <c r="I4">
-        <v>206.3005950302268</v>
+        <v>206.30059503022679</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>215.7323646952256</v>
+        <v>215.73236469522561</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -826,43 +915,43 @@
         <v>0.9562802286141745</v>
       </c>
       <c r="O4">
-        <v>241.994526859706</v>
+        <v>241.99452685970601</v>
       </c>
       <c r="P4">
-        <v>26.26216216448037</v>
+        <v>26.262162164480369</v>
       </c>
       <c r="Q4">
         <v>2.220785907329287</v>
       </c>
       <c r="R4">
-        <v>157.4097250643512</v>
+        <v>157.40972506435119</v>
       </c>
       <c r="S4">
-        <v>9.214569818893438</v>
+        <v>9.2145698188934375</v>
       </c>
       <c r="T4">
-        <v>7.966823497864294</v>
+        <v>7.9668234978642936</v>
       </c>
       <c r="U4">
-        <v>2.075285855999979</v>
+        <v>2.0752858559999789</v>
       </c>
       <c r="V4">
-        <v>144.8475228974457</v>
+        <v>144.84752289744571</v>
       </c>
       <c r="W4">
-        <v>54.26606810377598</v>
+        <v>54.266068103775979</v>
       </c>
       <c r="X4">
-        <v>260.5666631340028</v>
+        <v>260.56666313400279</v>
       </c>
       <c r="Y4">
-        <v>44.83429843877718</v>
+        <v>44.834298438777182</v>
       </c>
       <c r="Z4">
-        <v>1.210369516049821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>1.2103695160498209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>220.208871025515</v>
+        <v>220.20887102551501</v>
       </c>
       <c r="H5">
-        <v>45.43619883572437</v>
+        <v>45.436198835724369</v>
       </c>
       <c r="I5">
         <v>174.7726721897906</v>
@@ -903,46 +992,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9874140310110392</v>
+        <v>0.98741403101103919</v>
       </c>
       <c r="O5">
-        <v>227.9519622438171</v>
+        <v>227.95196224381709</v>
       </c>
       <c r="P5">
-        <v>50.95156858844609</v>
+        <v>50.951568588446086</v>
       </c>
       <c r="Q5">
-        <v>1.498259368828515</v>
+        <v>1.4982593688285151</v>
       </c>
       <c r="R5">
-        <v>100.661728661223</v>
+        <v>100.66172866122299</v>
       </c>
       <c r="S5">
-        <v>4.473894888007591</v>
+        <v>4.4738948880075906</v>
       </c>
       <c r="T5">
-        <v>4.846551354828015</v>
+        <v>4.8465513548280148</v>
       </c>
       <c r="U5">
-        <v>1.578267391165512</v>
+        <v>1.5782673911655121</v>
       </c>
       <c r="V5">
         <v>103.0622011888544</v>
       </c>
       <c r="W5">
-        <v>73.70078427592367</v>
+        <v>73.700784275923667</v>
       </c>
       <c r="X5">
-        <v>248.4734564657143</v>
+        <v>248.47345646571429</v>
       </c>
       <c r="Y5">
-        <v>71.47306281034332</v>
+        <v>71.473062810343322</v>
       </c>
       <c r="Z5">
         <v>1.031168686187294</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>259.298690989726</v>
+        <v>259.29869098972603</v>
       </c>
       <c r="H6">
-        <v>34.73898430138603</v>
+        <v>34.738984301386033</v>
       </c>
       <c r="I6">
         <v>224.5597066883399</v>
@@ -974,7 +1063,7 @@
         <v>0.08</v>
       </c>
       <c r="K6">
-        <v>225.794493287082</v>
+        <v>225.79449328708199</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -983,46 +1072,46 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9945313697390658</v>
+        <v>0.99453136973906575</v>
       </c>
       <c r="O6">
-        <v>277.4208822277863</v>
+        <v>277.42088222778631</v>
       </c>
       <c r="P6">
-        <v>51.62638894070429</v>
+        <v>51.626388940704288</v>
       </c>
       <c r="Q6">
-        <v>1.681502828106406</v>
+        <v>1.6815028281064059</v>
       </c>
       <c r="R6">
-        <v>138.9845742783665</v>
+        <v>138.98457427836649</v>
       </c>
       <c r="S6">
-        <v>5.373625541511712</v>
+        <v>5.3736255415117116</v>
       </c>
       <c r="T6">
-        <v>7.464198974273994</v>
+        <v>7.4641989742739936</v>
       </c>
       <c r="U6">
         <v>2.01011812105066</v>
       </c>
       <c r="V6">
-        <v>154.7302448372295</v>
+        <v>154.73024483722949</v>
       </c>
       <c r="W6">
-        <v>52.86117553944644</v>
+        <v>52.861175539446442</v>
       </c>
       <c r="X6">
-        <v>277.4208822277864</v>
+        <v>277.42088222778642</v>
       </c>
       <c r="Y6">
-        <v>51.62638894070437</v>
+        <v>51.626388940704373</v>
       </c>
       <c r="Z6">
-        <v>1.023917740986306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.0239177409863061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>219.2908164303061</v>
+        <v>219.29081643030611</v>
       </c>
       <c r="H7">
-        <v>27.96365414056421</v>
+        <v>27.963654140564209</v>
       </c>
       <c r="I7">
-        <v>191.3271622897419</v>
+        <v>191.32716228974189</v>
       </c>
       <c r="J7">
         <v>0.08</v>
@@ -1063,46 +1152,46 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9669971813827394</v>
+        <v>0.96699718138273938</v>
       </c>
       <c r="O7">
-        <v>234.791175996588</v>
+        <v>234.79117599658801</v>
       </c>
       <c r="P7">
-        <v>36.93417499048663</v>
+        <v>36.934174990486632</v>
       </c>
       <c r="Q7">
         <v>1.849559232376796</v>
       </c>
       <c r="R7">
-        <v>129.5450566622266</v>
+        <v>129.54505666222661</v>
       </c>
       <c r="S7">
-        <v>6.357016937756553</v>
+        <v>6.3570169377565531</v>
       </c>
       <c r="T7">
-        <v>7.841994301889245</v>
+        <v>7.8419943018892448</v>
       </c>
       <c r="U7">
         <v>2.059493177255395</v>
       </c>
       <c r="V7">
-        <v>133.7362073761203</v>
+        <v>133.73620737612029</v>
       </c>
       <c r="W7">
         <v>49.80849481328832</v>
       </c>
       <c r="X7">
-        <v>241.1356571030302</v>
+        <v>241.13565710303021</v>
       </c>
       <c r="Y7">
-        <v>43.27865609692881</v>
+        <v>43.278656096928813</v>
       </c>
       <c r="Z7">
         <v>1.150878962177915</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,16 +1214,16 @@
         <v>222.0335831647958</v>
       </c>
       <c r="H8">
-        <v>30.62521635468663</v>
+        <v>30.625216354686629</v>
       </c>
       <c r="I8">
-        <v>191.4083668101092</v>
+        <v>191.40836681010919</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>199.500362233336</v>
+        <v>199.50036223333601</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1146,43 +1235,43 @@
         <v>0.9594386930798533</v>
       </c>
       <c r="O8">
-        <v>235.3983800173193</v>
+        <v>235.39838001731931</v>
       </c>
       <c r="P8">
-        <v>35.89801778398326</v>
+        <v>35.898017783983263</v>
       </c>
       <c r="Q8">
-        <v>1.880597233933922</v>
+        <v>1.8805972339339221</v>
       </c>
       <c r="R8">
         <v>131.9906492850663</v>
       </c>
       <c r="S8">
-        <v>6.557420006693175</v>
+        <v>6.5574200066931754</v>
       </c>
       <c r="T8">
-        <v>7.25002496613604</v>
+        <v>7.2500249661360403</v>
       </c>
       <c r="U8">
         <v>1.981004912465625</v>
       </c>
       <c r="V8">
-        <v>130.7396627661524</v>
+        <v>130.73966276615241</v>
       </c>
       <c r="W8">
-        <v>56.37926988143278</v>
+        <v>56.379269881432784</v>
       </c>
       <c r="X8">
-        <v>247.787636691542</v>
+        <v>247.78763669154199</v>
       </c>
       <c r="Y8">
-        <v>48.28727445820599</v>
+        <v>48.287274458205992</v>
       </c>
       <c r="Z8">
-        <v>1.167580289300251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.1675802893002509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,7 +1294,7 @@
         <v>255.10297814158</v>
       </c>
       <c r="H9">
-        <v>35.14778748041365</v>
+        <v>35.147787480413648</v>
       </c>
       <c r="I9">
         <v>219.9551906611664</v>
@@ -1214,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>220.8345238080223</v>
+        <v>220.83452380802231</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1223,46 +1312,46 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9960181355175227</v>
+        <v>0.99601813551752272</v>
       </c>
       <c r="O9">
-        <v>260.4563817149609</v>
+        <v>260.45638171496091</v>
       </c>
       <c r="P9">
-        <v>39.62185790693861</v>
+        <v>39.621857906938608</v>
       </c>
       <c r="Q9">
-        <v>1.883054473210701</v>
+        <v>1.8830544732107011</v>
       </c>
       <c r="R9">
-        <v>146.2244070394428</v>
+        <v>146.22440703944281</v>
       </c>
       <c r="S9">
-        <v>6.573552969845707</v>
+        <v>6.5735529698457071</v>
       </c>
       <c r="T9">
-        <v>7.258009576953824</v>
+        <v>7.2580095769538238</v>
       </c>
       <c r="U9">
-        <v>1.982105628293153</v>
+        <v>1.9821056282931531</v>
       </c>
       <c r="V9">
-        <v>150.2885632741869</v>
+        <v>150.28856327418691</v>
       </c>
       <c r="W9">
-        <v>51.82428651737612</v>
+        <v>51.824286517376123</v>
       </c>
       <c r="X9">
-        <v>271.7794771785425</v>
+        <v>271.77947717854249</v>
       </c>
       <c r="Y9">
-        <v>50.94495337052018</v>
+        <v>50.944953370520182</v>
       </c>
       <c r="Z9">
-        <v>1.017260456407931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>1.0172604564079311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1288,7 +1377,7 @@
         <v>42.67987571583641</v>
       </c>
       <c r="I10">
-        <v>183.8664391595483</v>
+        <v>183.86643915954829</v>
       </c>
       <c r="J10">
         <v>0.08</v>
@@ -1303,13 +1392,13 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9842524686343567</v>
+        <v>0.98425246863435667</v>
       </c>
       <c r="O10">
         <v>232.9432385439307</v>
       </c>
       <c r="P10">
-        <v>46.1350312811522</v>
+        <v>46.135031281152202</v>
       </c>
       <c r="Q10">
         <v>1.619222253422733</v>
@@ -1318,10 +1407,10 @@
         <v>112.105337949983</v>
       </c>
       <c r="S10">
-        <v>5.049161820750652</v>
+        <v>5.0491618207506521</v>
       </c>
       <c r="T10">
-        <v>5.308035955487202</v>
+        <v>5.3080359554872016</v>
       </c>
       <c r="U10">
         <v>1.669221890276559</v>
@@ -1330,19 +1419,19 @@
         <v>112.6242563403912</v>
       </c>
       <c r="W10">
-        <v>59.4060103071788</v>
+        <v>59.406010307178803</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>56.4642422039486</v>
+        <v>56.464242203948601</v>
       </c>
       <c r="Z10">
-        <v>1.052099664998683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1.0520996649986829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,10 +1454,10 @@
         <v>232.101172699752</v>
       </c>
       <c r="H11">
-        <v>29.28008633708789</v>
+        <v>29.280086337087891</v>
       </c>
       <c r="I11">
-        <v>202.8210863626641</v>
+        <v>202.82108636266409</v>
       </c>
       <c r="J11">
         <v>0.08</v>
@@ -1383,46 +1472,46 @@
         <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9943614441517251</v>
+        <v>0.99436144415172512</v>
       </c>
       <c r="O11">
-        <v>244.4068383480964</v>
+        <v>244.40683834809639</v>
       </c>
       <c r="P11">
-        <v>40.43564904309697</v>
+        <v>40.435649043096973</v>
       </c>
       <c r="Q11">
         <v>1.799122409117561</v>
       </c>
       <c r="R11">
-        <v>131.2225069843506</v>
+        <v>131.22250698435059</v>
       </c>
       <c r="S11">
-        <v>6.044340677890533</v>
+        <v>6.0443406778905331</v>
       </c>
       <c r="T11">
-        <v>7.926929245620392</v>
+        <v>7.9269292456203919</v>
       </c>
       <c r="U11">
-        <v>2.070265728070311</v>
+        <v>2.0702657280703112</v>
       </c>
       <c r="V11">
-        <v>142.2035271040513</v>
+        <v>142.20352710405129</v>
       </c>
       <c r="W11">
-        <v>79.97600182825599</v>
+        <v>79.976001828255988</v>
       </c>
       <c r="X11">
-        <v>282.7970881909201</v>
+        <v>282.79708819092008</v>
       </c>
       <c r="Y11">
-        <v>78.82589888592071</v>
+        <v>78.825898885920708</v>
       </c>
       <c r="Z11">
         <v>1.014590419628449</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>256.1433965016357</v>
+        <v>256.14339650163572</v>
       </c>
       <c r="H12">
-        <v>31.00089684804472</v>
+        <v>31.000896848044722</v>
       </c>
       <c r="I12">
-        <v>225.142499653591</v>
+        <v>225.14249965359099</v>
       </c>
       <c r="J12">
         <v>0.06</v>
       </c>
       <c r="K12">
-        <v>231.1107490536695</v>
+        <v>231.11074905366951</v>
       </c>
       <c r="L12">
         <v>4</v>
@@ -1466,13 +1555,13 @@
         <v>0.9741758034859187</v>
       </c>
       <c r="O12">
-        <v>256.1433965016357</v>
+        <v>256.14339650163572</v>
       </c>
       <c r="P12">
-        <v>25.03264744796624</v>
+        <v>25.032647447966241</v>
       </c>
       <c r="Q12">
-        <v>2.325556559398995</v>
+        <v>2.3255565593989949</v>
       </c>
       <c r="R12">
         <v>172.895911581929</v>
@@ -1481,28 +1570,28 @@
         <v>10.23237342490699</v>
       </c>
       <c r="T12">
-        <v>8.2624511722083</v>
+        <v>8.2624511722082996</v>
       </c>
       <c r="U12">
         <v>2.111721295594025</v>
       </c>
       <c r="V12">
-        <v>159.6772455970612</v>
+        <v>159.67724559706119</v>
       </c>
       <c r="W12">
-        <v>34.42596982719112</v>
+        <v>34.425969827191118</v>
       </c>
       <c r="X12">
-        <v>259.5684694807821</v>
+        <v>259.56846948078208</v>
       </c>
       <c r="Y12">
         <v>28.45772042711263</v>
       </c>
       <c r="Z12">
-        <v>1.209723382987217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.2097233829872169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1525,7 +1614,7 @@
         <v>269.7099498172492</v>
       </c>
       <c r="H13">
-        <v>34.63691853508609</v>
+        <v>34.636918535086089</v>
       </c>
       <c r="I13">
         <v>235.0730312821631</v>
@@ -1534,7 +1623,7 @@
         <v>0.08</v>
       </c>
       <c r="K13">
-        <v>240.9618418689845</v>
+        <v>240.96184186898449</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1543,46 +1632,46 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9755612318483883</v>
+        <v>0.97556123184838828</v>
       </c>
       <c r="O13">
-        <v>288.8188181601054</v>
+        <v>288.81881816010542</v>
       </c>
       <c r="P13">
-        <v>47.85697629112081</v>
+        <v>47.856976291120809</v>
       </c>
       <c r="Q13">
-        <v>1.797582662450368</v>
+        <v>1.7975826624503679</v>
       </c>
       <c r="R13">
         <v>154.9349710107675</v>
       </c>
       <c r="S13">
-        <v>6.035041085821622</v>
+        <v>6.0350410858216224</v>
       </c>
       <c r="T13">
-        <v>7.786776688695378</v>
+        <v>7.7867766886953778</v>
       </c>
       <c r="U13">
-        <v>2.052426998733454</v>
+        <v>2.0524269987334538</v>
       </c>
       <c r="V13">
-        <v>163.9832845278212</v>
+        <v>163.98328452782121</v>
       </c>
       <c r="W13">
-        <v>53.74578687794221</v>
+        <v>53.745786877942209</v>
       </c>
       <c r="X13">
-        <v>288.8188181601053</v>
+        <v>288.81881816010531</v>
       </c>
       <c r="Y13">
-        <v>47.85697629112076</v>
+        <v>47.856976291120759</v>
       </c>
       <c r="Z13">
         <v>1.123050201730234</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1614,7 +1703,7 @@
         <v>0.04</v>
       </c>
       <c r="K14">
-        <v>189.6092761153028</v>
+        <v>189.60927611530281</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1623,46 +1712,46 @@
         <v>0.06</v>
       </c>
       <c r="N14">
-        <v>0.9789331227065726</v>
+        <v>0.97893312270657262</v>
       </c>
       <c r="O14">
         <v>220.4883478052121</v>
       </c>
       <c r="P14">
-        <v>30.8790716899094</v>
+        <v>30.879071689909399</v>
       </c>
       <c r="Q14">
-        <v>1.965766186220335</v>
+        <v>1.9657661862203351</v>
       </c>
       <c r="R14">
         <v>128.9082411254052</v>
       </c>
       <c r="S14">
-        <v>7.140381356647547</v>
+        <v>7.1403813566475467</v>
       </c>
       <c r="T14">
-        <v>9.471209300905061</v>
+        <v>9.4712093009050609</v>
       </c>
       <c r="U14">
-        <v>2.248256597134516</v>
+        <v>2.2482565971345161</v>
       </c>
       <c r="V14">
-        <v>136.352684160024</v>
+        <v>136.35268416002401</v>
       </c>
       <c r="W14">
-        <v>45.82976705580865</v>
+        <v>45.829767055808652</v>
       </c>
       <c r="X14">
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>41.83529170219197</v>
+        <v>41.835291702191967</v>
       </c>
       <c r="Z14">
-        <v>1.095480996811297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>1.0954809968112971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1685,16 +1774,16 @@
         <v>224.7190406157377</v>
       </c>
       <c r="H15">
-        <v>28.46400724698167</v>
+        <v>28.464007246981669</v>
       </c>
       <c r="I15">
-        <v>196.255033368756</v>
+        <v>196.25503336875599</v>
       </c>
       <c r="J15">
         <v>0.06</v>
       </c>
       <c r="K15">
-        <v>209.5180387248002</v>
+        <v>209.51803872480019</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1703,46 +1792,46 @@
         <v>0.08</v>
       </c>
       <c r="N15">
-        <v>0.9366975491143031</v>
+        <v>0.93669754911430314</v>
       </c>
       <c r="O15">
-        <v>270.0607667565276</v>
+        <v>270.06076675652758</v>
       </c>
       <c r="P15">
-        <v>60.54272803172741</v>
+        <v>60.542728031727407</v>
       </c>
       <c r="Q15">
-        <v>1.495297631517904</v>
+        <v>1.4952976315179041</v>
       </c>
       <c r="R15">
         <v>118.9886408933256</v>
       </c>
       <c r="S15">
-        <v>4.460663989488586</v>
+        <v>4.4606639894885856</v>
       </c>
       <c r="T15">
-        <v>7.894849051500539</v>
+        <v>7.8948490515005387</v>
       </c>
       <c r="U15">
-        <v>2.066210528018877</v>
+        <v>2.0662105280188769</v>
       </c>
       <c r="V15">
-        <v>137.4424019254369</v>
+        <v>137.44240192543691</v>
       </c>
       <c r="W15">
-        <v>88.86251565086607</v>
+        <v>88.862515650866072</v>
       </c>
       <c r="X15">
-        <v>285.1175490196221</v>
+        <v>285.11754901962212</v>
       </c>
       <c r="Y15">
-        <v>75.59951029482187</v>
+        <v>75.599510294821869</v>
       </c>
       <c r="Z15">
-        <v>1.175437715195791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>1.1754377151957911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>281.8737893346923</v>
+        <v>281.87378933469228</v>
       </c>
       <c r="H16">
-        <v>42.11705234027735</v>
+        <v>42.117052340277347</v>
       </c>
       <c r="I16">
-        <v>239.756736994415</v>
+        <v>239.75673699441501</v>
       </c>
       <c r="J16">
         <v>0.08</v>
       </c>
       <c r="K16">
-        <v>241.9188592497576</v>
+        <v>241.91885924975759</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1783,25 +1872,25 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.9910626138778603</v>
+        <v>0.99106261387786032</v>
       </c>
       <c r="O16">
-        <v>291.7396124440075</v>
+        <v>291.73961244400749</v>
       </c>
       <c r="P16">
-        <v>49.82075319424995</v>
+        <v>49.820753194249953</v>
       </c>
       <c r="Q16">
-        <v>1.767430038197115</v>
+        <v>1.7674300381971151</v>
       </c>
       <c r="R16">
-        <v>153.8641635286353</v>
+        <v>153.86416352863529</v>
       </c>
       <c r="S16">
         <v>5.855784863519057</v>
       </c>
       <c r="T16">
-        <v>6.692628606991354</v>
+        <v>6.6926286069913541</v>
       </c>
       <c r="U16">
         <v>1.901006712812173</v>
@@ -1810,19 +1899,19 @@
         <v>159.6919377716861</v>
       </c>
       <c r="W16">
-        <v>51.98287544959257</v>
+        <v>51.982875449592569</v>
       </c>
       <c r="X16">
-        <v>291.7396124440075</v>
+        <v>291.73961244400749</v>
       </c>
       <c r="Y16">
-        <v>49.82075319424993</v>
+        <v>49.820753194249932</v>
       </c>
       <c r="Z16">
         <v>1.043398024251311</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,16 +1934,16 @@
         <v>225.3209065746895</v>
       </c>
       <c r="H17">
-        <v>25.10454176000986</v>
+        <v>25.104541760009859</v>
       </c>
       <c r="I17">
-        <v>200.2163648146797</v>
+        <v>200.21636481467971</v>
       </c>
       <c r="J17">
         <v>0.06</v>
       </c>
       <c r="K17">
-        <v>209.8953522348191</v>
+        <v>209.89535223481909</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1863,46 +1952,46 @@
         <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.9538866043622011</v>
+        <v>0.95388660436220107</v>
       </c>
       <c r="O17">
-        <v>249.5752437525121</v>
+        <v>249.57524375251211</v>
       </c>
       <c r="P17">
-        <v>39.67989151769307</v>
+        <v>39.679891517693072</v>
       </c>
       <c r="Q17">
         <v>1.838915899408571</v>
       </c>
       <c r="R17">
-        <v>136.9273688361259</v>
+        <v>136.92736883612591</v>
       </c>
       <c r="S17">
-        <v>6.289715878916346</v>
+        <v>6.2897158789163461</v>
       </c>
       <c r="T17">
-        <v>8.975304497834461</v>
+        <v>8.9753044978344612</v>
       </c>
       <c r="U17">
         <v>2.194476861134139</v>
       </c>
       <c r="V17">
-        <v>145.1250288129623</v>
+        <v>145.12502881296231</v>
       </c>
       <c r="W17">
         <v>75.64868153085709</v>
       </c>
       <c r="X17">
-        <v>275.8650463455368</v>
+        <v>275.86504634553683</v>
       </c>
       <c r="Y17">
-        <v>65.96969411071771</v>
+        <v>65.969694110717711</v>
       </c>
       <c r="Z17">
         <v>1.146718694858506</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>240.5234363723933</v>
+        <v>240.52343637239329</v>
       </c>
       <c r="H18">
         <v>25.3264258099959</v>
@@ -1934,7 +2023,7 @@
         <v>0.06</v>
       </c>
       <c r="K18">
-        <v>231.1242627171167</v>
+        <v>231.12426271711669</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,13 +2032,13 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9310879266093607</v>
+        <v>0.93108792660936068</v>
       </c>
       <c r="O18">
-        <v>284.2735021787552</v>
+        <v>284.27350217875522</v>
       </c>
       <c r="P18">
-        <v>53.14923946163844</v>
+        <v>53.149239461638437</v>
       </c>
       <c r="Q18">
         <v>1.676833015177241</v>
@@ -1961,28 +2050,28 @@
         <v>5.348590216120316</v>
       </c>
       <c r="T18">
-        <v>9.49693565830607</v>
+        <v>9.4969356583060698</v>
       </c>
       <c r="U18">
         <v>2.25096918428852</v>
       </c>
       <c r="V18">
-        <v>158.1880065159272</v>
+        <v>158.18800651592721</v>
       </c>
       <c r="W18">
-        <v>72.32473859486319</v>
+        <v>72.324738594863192</v>
       </c>
       <c r="X18">
-        <v>287.5217491572606</v>
+        <v>287.52174915726061</v>
       </c>
       <c r="Y18">
-        <v>56.39748644014384</v>
+        <v>56.397486440143837</v>
       </c>
       <c r="Z18">
-        <v>1.282410673951283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.2824106739512831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2005,7 +2094,7 @@
         <v>234.2778426632558</v>
       </c>
       <c r="H19">
-        <v>28.5026344266675</v>
+        <v>28.502634426667498</v>
       </c>
       <c r="I19">
         <v>205.7752082365883</v>
@@ -2023,37 +2112,37 @@
         <v>0.06</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O19">
         <v>234.2778426632558</v>
       </c>
       <c r="P19">
-        <v>28.5026344266675</v>
+        <v>28.502634426667498</v>
       </c>
       <c r="Q19">
-        <v>2.10651125378387</v>
+        <v>2.1065112537838702</v>
       </c>
       <c r="R19">
-        <v>145.7340880543256</v>
+        <v>145.73408805432561</v>
       </c>
       <c r="S19">
-        <v>8.219515401848675</v>
+        <v>8.2195154018486747</v>
       </c>
       <c r="T19">
-        <v>8.219515401848675</v>
+        <v>8.2195154018486747</v>
       </c>
       <c r="U19">
-        <v>2.10651125378387</v>
+        <v>2.1065112537838702</v>
       </c>
       <c r="V19">
-        <v>145.7340880543256</v>
+        <v>145.73408805432561</v>
       </c>
       <c r="W19">
-        <v>53.10900905358517</v>
+        <v>53.109009053585169</v>
       </c>
       <c r="X19">
-        <v>258.8842172901735</v>
+        <v>258.88421729017352</v>
       </c>
       <c r="Y19">
         <v>53.10900905358514</v>
@@ -2062,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2171,19 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>279.7935662368075</v>
+        <v>279.79356623680752</v>
       </c>
       <c r="H20">
-        <v>45.38846859046871</v>
+        <v>45.388468590468712</v>
       </c>
       <c r="I20">
-        <v>234.4050976463388</v>
+        <v>234.40509764633879</v>
       </c>
       <c r="J20">
         <v>0.06</v>
       </c>
       <c r="K20">
-        <v>245.2286736060119</v>
+        <v>245.22867360601191</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2103,16 +2192,16 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9558633344114466</v>
+        <v>0.95586333441144655</v>
       </c>
       <c r="O20">
-        <v>297.1901333622746</v>
+        <v>297.19013336227459</v>
       </c>
       <c r="P20">
-        <v>51.96145975626276</v>
+        <v>51.961459756262762</v>
       </c>
       <c r="Q20">
-        <v>1.743869828391818</v>
+        <v>1.7438698283918179</v>
       </c>
       <c r="R20">
         <v>154.6146516978695</v>
@@ -2124,25 +2213,25 @@
         <v>6.164419618589255</v>
       </c>
       <c r="U20">
-        <v>1.81879399083668</v>
+        <v>1.8187939908366799</v>
       </c>
       <c r="V20">
-        <v>151.8528237207149</v>
+        <v>151.85282372071489</v>
       </c>
       <c r="W20">
         <v>65.26944762781946</v>
       </c>
       <c r="X20">
-        <v>299.6745452741583</v>
+        <v>299.67454527415828</v>
       </c>
       <c r="Y20">
-        <v>54.4458716681464</v>
+        <v>54.445871668146403</v>
       </c>
       <c r="Z20">
         <v>1.198795163490888</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>225.0807247614021</v>
+        <v>225.08072476140211</v>
       </c>
       <c r="H21">
         <v>29.93370807034853</v>
       </c>
       <c r="I21">
-        <v>195.1470166910536</v>
+        <v>195.14701669105361</v>
       </c>
       <c r="J21">
         <v>0.06</v>
       </c>
       <c r="K21">
-        <v>198.1909851787077</v>
+        <v>198.19098517870771</v>
       </c>
       <c r="L21">
         <v>3</v>
@@ -2183,46 +2272,46 @@
         <v>0.06</v>
       </c>
       <c r="N21">
-        <v>0.9846412364068454</v>
+        <v>0.98464123640684542</v>
       </c>
       <c r="O21">
         <v>236.5987075689761</v>
       </c>
       <c r="P21">
-        <v>38.4077223902684</v>
+        <v>38.407722390268397</v>
       </c>
       <c r="Q21">
         <v>1.818106945726234</v>
       </c>
       <c r="R21">
-        <v>128.3616383314358</v>
+        <v>128.36163833143581</v>
       </c>
       <c r="S21">
-        <v>6.160185838796955</v>
+        <v>6.1601858387969548</v>
       </c>
       <c r="T21">
-        <v>7.519306469897746</v>
+        <v>7.5193064698977459</v>
       </c>
       <c r="U21">
-        <v>2.017473908961145</v>
+        <v>2.0174739089611449</v>
       </c>
       <c r="V21">
         <v>134.7565416606657</v>
       </c>
       <c r="W21">
-        <v>51.88270602191787</v>
+        <v>51.882706021917869</v>
       </c>
       <c r="X21">
-        <v>247.0297227129714</v>
+        <v>247.02972271297139</v>
       </c>
       <c r="Y21">
-        <v>48.83873753426369</v>
+        <v>48.838737534263693</v>
       </c>
       <c r="Z21">
-        <v>1.062326928199539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.0623269281995389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>238.9812219152199</v>
+        <v>238.98122191521989</v>
       </c>
       <c r="H22">
-        <v>25.75091650236986</v>
+        <v>25.750916502369861</v>
       </c>
       <c r="I22">
-        <v>213.23030541285</v>
+        <v>213.23030541284999</v>
       </c>
       <c r="J22">
         <v>0.08</v>
       </c>
       <c r="K22">
-        <v>216.3096349230154</v>
+        <v>216.30963492301541</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -2263,46 +2352,46 @@
         <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.9857642517345039</v>
+        <v>0.98576425173450388</v>
       </c>
       <c r="O22">
-        <v>245.3635115355304</v>
+        <v>245.36351153553039</v>
       </c>
       <c r="P22">
-        <v>29.05387661251494</v>
+        <v>29.053876612514941</v>
       </c>
       <c r="Q22">
-        <v>2.133588910863423</v>
+        <v>2.1335889108634229</v>
       </c>
       <c r="R22">
-        <v>154.3206059649594</v>
+        <v>154.32060596495941</v>
       </c>
       <c r="S22">
-        <v>8.445121276168708</v>
+        <v>8.4451212761687078</v>
       </c>
       <c r="T22">
-        <v>9.280493837694141</v>
+        <v>9.2804938376941415</v>
       </c>
       <c r="U22">
-        <v>2.227914760650992</v>
+        <v>2.2279147606509921</v>
       </c>
       <c r="V22">
-        <v>155.8594584369289</v>
+        <v>155.85945843692889</v>
       </c>
       <c r="W22">
-        <v>40.3033790238938</v>
+        <v>40.303379023893797</v>
       </c>
       <c r="X22">
-        <v>253.5336844367438</v>
+        <v>253.53368443674381</v>
       </c>
       <c r="Y22">
-        <v>37.22404951372837</v>
+        <v>37.224049513728367</v>
       </c>
       <c r="Z22">
-        <v>1.082724194449337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.0827241944493371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2325,7 +2414,7 @@
         <v>230.3496908544829</v>
       </c>
       <c r="H23">
-        <v>20.53518894357719</v>
+        <v>20.535188943577189</v>
       </c>
       <c r="I23">
         <v>209.8145019109057</v>
@@ -2343,46 +2432,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9738137242868156</v>
+        <v>0.97381372428681556</v>
       </c>
       <c r="O23">
-        <v>244.5264180098816</v>
+        <v>244.52641800988161</v>
       </c>
       <c r="P23">
-        <v>29.06991264529984</v>
+        <v>29.069912645299841</v>
       </c>
       <c r="Q23">
-        <v>2.129619642609587</v>
+        <v>2.1296196426095868</v>
       </c>
       <c r="R23">
-        <v>153.5486483862064</v>
+        <v>153.54864838620639</v>
       </c>
       <c r="S23">
-        <v>8.411666763278623</v>
+        <v>8.4116667632786228</v>
       </c>
       <c r="T23">
-        <v>11.21731538421172</v>
+        <v>11.217315384211719</v>
       </c>
       <c r="U23">
-        <v>2.417458600895415</v>
+        <v>2.4174586008954151</v>
       </c>
       <c r="V23">
-        <v>160.1715327782426</v>
+        <v>160.17153277824261</v>
       </c>
       <c r="W23">
-        <v>34.71191609897599</v>
+        <v>34.711916098975991</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>29.06991264529984</v>
+        <v>29.069912645299841</v>
       </c>
       <c r="Z23">
         <v>1.19408394935746</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2405,16 +2494,16 @@
         <v>228.2962145061127</v>
       </c>
       <c r="H24">
-        <v>24.25700525681218</v>
+        <v>24.257005256812182</v>
       </c>
       <c r="I24">
-        <v>204.0392092493005</v>
+        <v>204.03920924930051</v>
       </c>
       <c r="J24">
         <v>0.08</v>
       </c>
       <c r="K24">
-        <v>212.8952603878736</v>
+        <v>212.89526038787361</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9584018398416276</v>
+        <v>0.95840183984162763</v>
       </c>
       <c r="O24">
         <v>246.7131148945972</v>
       </c>
       <c r="P24">
-        <v>33.81785450672358</v>
+        <v>33.817854506723577</v>
       </c>
       <c r="Q24">
-        <v>1.987237280566636</v>
+        <v>1.9872372805666361</v>
       </c>
       <c r="R24">
-        <v>145.6911591633341</v>
+        <v>145.69115916333411</v>
       </c>
       <c r="S24">
-        <v>7.295350887666347</v>
+        <v>7.2953508876663467</v>
       </c>
       <c r="T24">
         <v>9.411558108229352</v>
       </c>
       <c r="U24">
-        <v>2.241938519936053</v>
+        <v>2.2419385199360531</v>
       </c>
       <c r="V24">
-        <v>149.6564947857619</v>
+        <v>149.65649478576191</v>
       </c>
       <c r="W24">
-        <v>49.20387190819852</v>
+        <v>49.203871908198522</v>
       </c>
       <c r="X24">
-        <v>253.243081157499</v>
+        <v>253.24308115749901</v>
       </c>
       <c r="Y24">
-        <v>40.34782076962537</v>
+        <v>40.347820769625372</v>
       </c>
       <c r="Z24">
         <v>1.219492675679777</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2488,7 +2577,7 @@
         <v>27.56661509298624</v>
       </c>
       <c r="I25">
-        <v>247.310067496781</v>
+        <v>247.31006749678099</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2512,37 +2601,37 @@
         <v>27.56661509298624</v>
       </c>
       <c r="Q25">
-        <v>2.299717127658169</v>
+        <v>2.2997171276581692</v>
       </c>
       <c r="R25">
         <v>183.9146506158803</v>
       </c>
       <c r="S25">
-        <v>9.971361433479148</v>
+        <v>9.9713614334791476</v>
       </c>
       <c r="T25">
-        <v>9.971361433479148</v>
+        <v>9.9713614334791476</v>
       </c>
       <c r="U25">
-        <v>2.299717127658169</v>
+        <v>2.2997171276581692</v>
       </c>
       <c r="V25">
         <v>183.9146506158803</v>
       </c>
       <c r="W25">
-        <v>34.26852987457642</v>
+        <v>34.268529874576423</v>
       </c>
       <c r="X25">
-        <v>281.5785973713574</v>
+        <v>281.57859737135738</v>
       </c>
       <c r="Y25">
-        <v>34.26852987457644</v>
+        <v>34.268529874576437</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>208.8514347186974</v>
+        <v>208.85143471869739</v>
       </c>
       <c r="H26">
-        <v>21.92185825138296</v>
+        <v>21.921858251382961</v>
       </c>
       <c r="I26">
-        <v>186.9295764673145</v>
+        <v>186.92957646731449</v>
       </c>
       <c r="J26">
         <v>0.06</v>
       </c>
       <c r="K26">
-        <v>195.3623692661556</v>
+        <v>195.36236926615561</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -2583,46 +2672,46 @@
         <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.9568351221859284</v>
+        <v>0.95683512218592837</v>
       </c>
       <c r="O26">
-        <v>214.5516408570521</v>
+        <v>214.55164085705209</v>
       </c>
       <c r="P26">
         <v>19.18927159089645</v>
       </c>
       <c r="Q26">
-        <v>2.414199107753394</v>
+        <v>2.4141991077533942</v>
       </c>
       <c r="R26">
-        <v>149.0356469129759</v>
+        <v>149.03564691297589</v>
       </c>
       <c r="S26">
         <v>11.18081214499237</v>
       </c>
       <c r="T26">
-        <v>9.527086268132486</v>
+        <v>9.5270862681324857</v>
       </c>
       <c r="U26">
-        <v>2.254138927804091</v>
+        <v>2.2541389278040911</v>
       </c>
       <c r="V26">
-        <v>137.5146624130688</v>
+        <v>137.51466241306881</v>
       </c>
       <c r="W26">
-        <v>49.23713537994203</v>
+        <v>49.237135379942032</v>
       </c>
       <c r="X26">
-        <v>236.1667118472565</v>
+        <v>236.16671184725649</v>
       </c>
       <c r="Y26">
-        <v>40.80434258110088</v>
+        <v>40.804342581100883</v>
       </c>
       <c r="Z26">
-        <v>1.206664101549498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>1.2066641015494981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>243.579141825067</v>
+        <v>243.57914182506701</v>
       </c>
       <c r="H27">
-        <v>22.61046110081273</v>
+        <v>22.610461100812731</v>
       </c>
       <c r="I27">
-        <v>220.9686807242543</v>
+        <v>220.96868072425431</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>230.4775573175044</v>
+        <v>230.47755731750439</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2669,10 +2758,10 @@
         <v>254.2160809529764</v>
       </c>
       <c r="P27">
-        <v>23.73852363547199</v>
+        <v>23.738523635471989</v>
       </c>
       <c r="Q27">
-        <v>2.371085419435175</v>
+        <v>2.3710854194351749</v>
       </c>
       <c r="R27">
         <v>174.1914900465195</v>
@@ -2684,25 +2773,25 @@
         <v>10.77285159020094</v>
       </c>
       <c r="U27">
-        <v>2.377029227728883</v>
+        <v>2.3770292277288831</v>
       </c>
       <c r="V27">
         <v>167.2229538351954</v>
       </c>
       <c r="W27">
-        <v>46.03157447533309</v>
+        <v>46.031574475333088</v>
       </c>
       <c r="X27">
-        <v>267.0002551995873</v>
+        <v>267.00025519958729</v>
       </c>
       <c r="Y27">
-        <v>36.52269788208292</v>
+        <v>36.522697882082923</v>
       </c>
       <c r="Z27">
         <v>1.260355262471313</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <v>255.9071619061879</v>
+        <v>255.90716190618789</v>
       </c>
       <c r="H28">
-        <v>30.52659848457366</v>
+        <v>30.526598484573661</v>
       </c>
       <c r="I28">
         <v>225.3805634216142</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>255.9071619061879</v>
+        <v>255.90716190618789</v>
       </c>
       <c r="P28">
-        <v>30.52659848457366</v>
+        <v>30.526598484573661</v>
       </c>
       <c r="Q28">
-        <v>2.126216344869934</v>
+        <v>2.1262163448699338</v>
       </c>
       <c r="R28">
         <v>160.474410770432</v>
       </c>
       <c r="S28">
-        <v>8.383088015374797</v>
+        <v>8.3830880153747973</v>
       </c>
       <c r="T28">
-        <v>8.383088015374797</v>
+        <v>8.3830880153747973</v>
       </c>
       <c r="U28">
-        <v>2.126216344869934</v>
+        <v>2.1262163448699338</v>
       </c>
       <c r="V28">
         <v>160.474410770432</v>
       </c>
       <c r="W28">
-        <v>43.53547756928327</v>
+        <v>43.535477569283273</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>43.53547756928327</v>
+        <v>43.535477569283273</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>206.1173068924407</v>
+        <v>206.11730689244069</v>
       </c>
       <c r="H29">
         <v>24.19508576518222</v>
@@ -2823,46 +2912,46 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.978094720192059</v>
+        <v>0.97809472019205901</v>
       </c>
       <c r="O29">
-        <v>206.1173068924407</v>
+        <v>206.11730689244069</v>
       </c>
       <c r="P29">
-        <v>20.12077979582555</v>
+        <v>20.120779795825548</v>
       </c>
       <c r="Q29">
-        <v>2.326692355919816</v>
+        <v>2.3266923559198158</v>
       </c>
       <c r="R29">
-        <v>139.181662550522</v>
+        <v>139.18166255052199</v>
       </c>
       <c r="S29">
-        <v>10.24400192159569</v>
+        <v>10.244001921595689</v>
       </c>
       <c r="T29">
-        <v>8.518974013683906</v>
+        <v>8.5189740136839056</v>
       </c>
       <c r="U29">
-        <v>2.142295912660923</v>
+        <v>2.1422959126609231</v>
       </c>
       <c r="V29">
-        <v>130.0891877860281</v>
+        <v>130.08918778602811</v>
       </c>
       <c r="W29">
-        <v>43.89575134875213</v>
+        <v>43.895751348752128</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>39.8214453793955</v>
+        <v>39.821445379395499</v>
       </c>
       <c r="Z29">
         <v>1.102314366807609</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>242.3541234594796</v>
+        <v>242.35412345947961</v>
       </c>
       <c r="H30">
-        <v>20.38896964728199</v>
+        <v>20.388969647281989</v>
       </c>
       <c r="I30">
         <v>221.9651538121976</v>
@@ -2894,7 +2983,7 @@
         <v>0.06</v>
       </c>
       <c r="K30">
-        <v>226.658506188999</v>
+        <v>226.65850618899901</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2903,37 +2992,37 @@
         <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9792932881464954</v>
+        <v>0.97929328814649541</v>
       </c>
       <c r="O30">
-        <v>254.1899177389817</v>
+        <v>254.18991773898171</v>
       </c>
       <c r="P30">
-        <v>27.53141154998277</v>
+        <v>27.531411549982771</v>
       </c>
       <c r="Q30">
-        <v>2.222754104262208</v>
+        <v>2.2227541042622079</v>
       </c>
       <c r="R30">
-        <v>165.4629481701428</v>
+        <v>165.46294817014279</v>
       </c>
       <c r="S30">
         <v>9.232723766360639</v>
       </c>
       <c r="T30">
-        <v>11.88653118093132</v>
+        <v>11.886531180931319</v>
       </c>
       <c r="U30">
-        <v>2.475405925575003</v>
+        <v>2.4754059255750032</v>
       </c>
       <c r="V30">
-        <v>171.4941775309468</v>
+        <v>171.49417753094681</v>
       </c>
       <c r="W30">
-        <v>38.18480975234002</v>
+        <v>38.184809752340023</v>
       </c>
       <c r="X30">
-        <v>260.1499635645376</v>
+        <v>260.14996356453759</v>
       </c>
       <c r="Y30">
         <v>33.49145737553863</v>
@@ -2942,7 +3031,7 @@
         <v>1.140135806100492</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <v>232.7577049708402</v>
+        <v>232.75770497084019</v>
       </c>
       <c r="H31">
-        <v>31.45898611526336</v>
+        <v>31.458986115263361</v>
       </c>
       <c r="I31">
-        <v>201.2987188555768</v>
+        <v>201.29871885557679</v>
       </c>
       <c r="J31">
         <v>0.08</v>
       </c>
       <c r="K31">
-        <v>210.1333520777885</v>
+        <v>210.13335207778849</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2983,25 +3072,25 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9579570157004811</v>
+        <v>0.95795701570048108</v>
       </c>
       <c r="O31">
-        <v>276.3304454643041</v>
+        <v>276.33044546430409</v>
       </c>
       <c r="P31">
-        <v>66.19709338651558</v>
+        <v>66.197093386515576</v>
       </c>
       <c r="Q31">
         <v>1.428960860309638</v>
       </c>
       <c r="R31">
-        <v>115.5402965621958</v>
+        <v>115.54029656219581</v>
       </c>
       <c r="S31">
-        <v>4.174359195060865</v>
+        <v>4.1743591950608652</v>
       </c>
       <c r="T31">
-        <v>7.398766893441303</v>
+        <v>7.3987668934413033</v>
       </c>
       <c r="U31">
         <v>2.001313350303354</v>
@@ -3010,19 +3099,62 @@
         <v>138.3394299560924</v>
       </c>
       <c r="W31">
-        <v>75.03172660872735</v>
+        <v>75.031726608727354</v>
       </c>
       <c r="X31">
-        <v>276.3304454643041</v>
+        <v>276.33044546430409</v>
       </c>
       <c r="Y31">
-        <v>66.1970933865156</v>
+        <v>66.197093386515604</v>
       </c>
       <c r="Z31">
         <v>1.133459533798977</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>7.7333333333333379E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.97511295208025572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.112764864997613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.93108792660936068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.2824106739512831</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>